--- a/data/Productos.xlsx
+++ b/data/Productos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miauIp63+WwZPoEK4XffVO/eviVlg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjwDzKRp0RO0hdJBmvCwEyHqbFVgg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="292">
   <si>
     <t>Id</t>
   </si>
@@ -168,622 +168,730 @@
     <t>Camiseta Manchester City Titular</t>
   </si>
   <si>
+    <t>Camiseta Juventus Alternativa Blanca</t>
+  </si>
+  <si>
+    <t>Camiseta Juventus Alternativa Celeste</t>
+  </si>
+  <si>
+    <t>Camiseta PSG Titular</t>
+  </si>
+  <si>
+    <t>Camiseta Real Madrid Titular</t>
+  </si>
+  <si>
+    <t>Camiseta Real Madrid Alternativa</t>
+  </si>
+  <si>
+    <t>Camiseta River Titular</t>
+  </si>
+  <si>
+    <t>Camiseta River Alternativa 70 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camiseta River Alternativa </t>
+  </si>
+  <si>
+    <t>Camiseta Talleres Titular</t>
+  </si>
+  <si>
+    <t>Camiseta Talleres Alternativa</t>
+  </si>
+  <si>
+    <t>Camiseta Tottenham Alternativa</t>
+  </si>
+  <si>
+    <t>Camiseta Milan Alternativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campera Argentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campera Belgrano </t>
+  </si>
+  <si>
+    <t>Campera Boca</t>
+  </si>
+  <si>
+    <t>Campera PSG</t>
+  </si>
+  <si>
+    <t>Campera Real Madrid</t>
+  </si>
+  <si>
+    <t>Campera River</t>
+  </si>
+  <si>
+    <t>Campera Talleres</t>
+  </si>
+  <si>
+    <t>Buzo Boca</t>
+  </si>
+  <si>
+    <t>Buzo Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Buzo Juventus</t>
+  </si>
+  <si>
+    <t>Buzo PSG</t>
+  </si>
+  <si>
+    <t>Buzo Real Madrid</t>
+  </si>
+  <si>
+    <t>Buzo River</t>
+  </si>
+  <si>
+    <t>Buzo Talleres</t>
+  </si>
+  <si>
+    <t>Conjunto Argentina</t>
+  </si>
+  <si>
+    <t>Conjunto Belgrano</t>
+  </si>
+  <si>
+    <t>Conjunto Boca</t>
+  </si>
+  <si>
+    <t>Conjunto River Titular</t>
+  </si>
+  <si>
+    <t>Conjunto River Alternativa</t>
+  </si>
+  <si>
+    <t>Conjunto Talleres</t>
+  </si>
+  <si>
+    <t>Buzo Belgrano</t>
+  </si>
+  <si>
+    <t>Campera Barcelona</t>
+  </si>
+  <si>
+    <t>Campera Instituto</t>
+  </si>
+  <si>
+    <t>Campera Juventus</t>
+  </si>
+  <si>
+    <t>Pantalon Soft Negro</t>
+  </si>
+  <si>
+    <t>Pantalon Soft Azul</t>
+  </si>
+  <si>
+    <t>Medias Belgrano</t>
+  </si>
+  <si>
+    <t>Medias Negras con Rayas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medias Negras </t>
+  </si>
+  <si>
+    <t>Medias Talleres</t>
+  </si>
+  <si>
+    <t>Medias Barcelona</t>
+  </si>
+  <si>
+    <t>Medias Boca</t>
+  </si>
+  <si>
+    <t>Medias Negras</t>
+  </si>
+  <si>
+    <t>Medias PSG</t>
+  </si>
+  <si>
+    <t>Medias River</t>
+  </si>
+  <si>
+    <t>Meidas Argentina Negra</t>
+  </si>
+  <si>
+    <t>Medias Argentina Azul</t>
+  </si>
+  <si>
+    <t>Medias Argentina Blancas</t>
+  </si>
+  <si>
+    <t>Medias Chelsea</t>
+  </si>
+  <si>
+    <t>Medias Instituto</t>
+  </si>
+  <si>
+    <t>Medias Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medias River </t>
+  </si>
+  <si>
+    <t>Medias River Violetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Talleres </t>
+  </si>
+  <si>
+    <t>Camiseta de Niño River Titular 2018</t>
+  </si>
+  <si>
+    <t>Camiseta de Niño River Titular 2019</t>
+  </si>
+  <si>
+    <t>Camiseta Milan</t>
+  </si>
+  <si>
+    <t>Camiseta Juventus</t>
+  </si>
+  <si>
+    <t>Camiseta Real Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camiseta Barcelona </t>
+  </si>
+  <si>
+    <t>Camiseta Boca</t>
+  </si>
+  <si>
+    <t>Camiseta Niño PSG Titular 2018</t>
+  </si>
+  <si>
+    <t>Camiseta Niño PSG Titular 2019</t>
+  </si>
+  <si>
+    <t>Campera Argentina Negra</t>
+  </si>
+  <si>
+    <t>Campera Argentina Blanca</t>
+  </si>
+  <si>
+    <t>Campera Argentina Azul Francia</t>
+  </si>
+  <si>
+    <t>Campera Argentina Azul Marino</t>
+  </si>
+  <si>
+    <t>Buzo Belgrano con cierre al costado</t>
+  </si>
+  <si>
+    <t>Pantalon Camuflado</t>
+  </si>
+  <si>
+    <t>Pantalon Negro Algodon</t>
+  </si>
+  <si>
+    <t>Pantalon Azul Algodon</t>
+  </si>
+  <si>
+    <t>Pantalon Gris Algodon</t>
+  </si>
+  <si>
+    <t>Pantalon Soft Belgrano</t>
+  </si>
+  <si>
+    <t>Pantalon Soft Talleres</t>
+  </si>
+  <si>
+    <t>Pantalon Acetato Belgrano</t>
+  </si>
+  <si>
+    <t>Pantalon Acetato Talleres</t>
+  </si>
+  <si>
+    <t>Pantalon Algodon Belgrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalon Soft Negro con tiras Naranjas </t>
+  </si>
+  <si>
+    <t>Pantalon Soft Negro con tiras Azules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalon Soft azul </t>
+  </si>
+  <si>
+    <t>Chomba Belgrano Negra</t>
+  </si>
+  <si>
+    <t>Chomba Belgrano Rayada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba Talleres Azul </t>
+  </si>
+  <si>
+    <t>Chomba Talleres Azul Rayada</t>
+  </si>
+  <si>
+    <t>Chomba Talleres Blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba Talleres Blanca Rayada </t>
+  </si>
+  <si>
+    <t>Chomba River Roja</t>
+  </si>
+  <si>
+    <t>Chomba River Gris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba River negra </t>
+  </si>
+  <si>
+    <t>Chomba Boca Azul Francia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba Boca Azul Marino con cuello amarillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba Boca Azul Marino </t>
+  </si>
+  <si>
+    <t>Chomba Roma</t>
+  </si>
+  <si>
+    <t>Taza Boca</t>
+  </si>
+  <si>
+    <t>Taza River</t>
+  </si>
+  <si>
+    <t>Taza Belgrano</t>
+  </si>
+  <si>
+    <t>Taza Talleres</t>
+  </si>
+  <si>
+    <t>Protector Bucal Junior</t>
+  </si>
+  <si>
+    <t>En Rosa y Violeta</t>
+  </si>
+  <si>
+    <t>Protector Bucal Senior</t>
+  </si>
+  <si>
+    <t>En Rosa, Verde y Amarrillo</t>
+  </si>
+  <si>
+    <t>Vendas 10 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendas 8 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiparras Hydro </t>
+  </si>
+  <si>
+    <t>Lente Champ Adulto</t>
+  </si>
+  <si>
+    <t>Antiparras Konna</t>
+  </si>
+  <si>
+    <t>Adulto</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero Negro</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero Azul</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero Rojo</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero Boca</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero Boca Pixelado</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero River</t>
+  </si>
+  <si>
+    <t>Guantes de Arquero River Pixelado</t>
+  </si>
+  <si>
+    <t>Guantes Arquero Barcelona</t>
+  </si>
+  <si>
+    <t>Billetera Boca</t>
+  </si>
+  <si>
+    <t>Billetera River</t>
+  </si>
+  <si>
+    <t>Billetera Talleres</t>
+  </si>
+  <si>
+    <t>Cintas de Capitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona, Real Madrid, Juventus, Argentina, Boca, River, Belgrano, Talleres, Racing y sin equipo. </t>
+  </si>
+  <si>
+    <t>Llavero Boca</t>
+  </si>
+  <si>
+    <t>Llaveros Belgrano</t>
+  </si>
+  <si>
+    <t>Llaveros Talleres</t>
+  </si>
+  <si>
+    <t>Camiseta Boca Alternativa Blanca</t>
+  </si>
+  <si>
+    <t>Camiseta River Alternativa Blanca</t>
+  </si>
+  <si>
+    <t>Camiseta River 70 años</t>
+  </si>
+  <si>
+    <t>Camiseta River Alternativa Negra</t>
+  </si>
+  <si>
+    <t>Conjunto Barcelona</t>
+  </si>
+  <si>
+    <t>Conjunto Juventus</t>
+  </si>
+  <si>
+    <t>Conjunto PSG</t>
+  </si>
+  <si>
+    <t>Conjunto Real Madrid</t>
+  </si>
+  <si>
+    <t>Conjunto River</t>
+  </si>
+  <si>
+    <t>Conjunto Tottenham</t>
+  </si>
+  <si>
+    <t>Conjunto Argentina Azul Acetato</t>
+  </si>
+  <si>
+    <t>Conjunto Argentina con Celeste Acetato</t>
+  </si>
+  <si>
+    <t>Conjunto Argentina Con Mangas Celeste Acetato</t>
+  </si>
+  <si>
+    <t>Conjunto Argentina Soft</t>
+  </si>
+  <si>
+    <t>Vendas 5 cm</t>
+  </si>
+  <si>
+    <t>Llavero Pelota Belgrano</t>
+  </si>
+  <si>
+    <t>Llavero Pelota Argentina</t>
+  </si>
+  <si>
+    <t>Llavero Pelota Talleres</t>
+  </si>
+  <si>
+    <t>Tarjetas de Arbitro</t>
+  </si>
+  <si>
+    <t>Aguja para inflar pelotas</t>
+  </si>
+  <si>
+    <t>Cartuchera River</t>
+  </si>
+  <si>
+    <t>Cartuchera Boca</t>
+  </si>
+  <si>
+    <t>Cartuchera Belgrano</t>
+  </si>
+  <si>
+    <t>Cartuchera Talleres</t>
+  </si>
+  <si>
+    <t>Cartuchera Instituto</t>
+  </si>
+  <si>
+    <t>Canilleras Negras de Adulto</t>
+  </si>
+  <si>
+    <t>Canilleras Blancas de Adulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medias Gol de Oro Negras </t>
+  </si>
+  <si>
+    <t>Medias Gol de Oro Blancas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medias Verdes </t>
+  </si>
+  <si>
+    <t>Gorra Fornite Azul Juvenil</t>
+  </si>
+  <si>
+    <t>Gorra Fornite Blanca Juvenil</t>
+  </si>
+  <si>
+    <t>Gorra ATR Roja Juvenil</t>
+  </si>
+  <si>
+    <t>Gorra Puma gris Juvenil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorra Jordan Niño </t>
+  </si>
+  <si>
+    <t>Gorra Fornite Camuflada Niño</t>
+  </si>
+  <si>
+    <t>Gorra Boca Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorra River Niño </t>
+  </si>
+  <si>
+    <t>Gorra Barcelona con Red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra HDP con Red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Boca Tevez con red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Belgrano con red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra River Roja con Red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra River Negra con Red Adulto</t>
+  </si>
+  <si>
+    <t>Gorra River Negra Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Gorin Bross Cock Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Gorin Bross Superman Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Gorin Bross Stallion Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Freedom Negra Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Freedom bisera Roja Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Billabong Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Nike Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Adidas Adulto</t>
+  </si>
+  <si>
+    <t>Gorra Tommy Adulto</t>
+  </si>
+  <si>
+    <t>Short con tira Roja</t>
+  </si>
+  <si>
+    <t>Short con tira Naranja</t>
+  </si>
+  <si>
+    <t>Short con tira Verde</t>
+  </si>
+  <si>
+    <t>Short con tira azul</t>
+  </si>
+  <si>
+    <t>Short con tira Blanca</t>
+  </si>
+  <si>
+    <t>Short con tira Amarilla</t>
+  </si>
+  <si>
+    <t>Short tottenham</t>
+  </si>
+  <si>
+    <t>Short Juventus</t>
+  </si>
+  <si>
+    <t>Short Boca</t>
+  </si>
+  <si>
+    <t>Short 3 tiras Gris</t>
+  </si>
+  <si>
+    <t>Short 3 tiras Negro</t>
+  </si>
+  <si>
+    <t>Short 3 tiras Azul</t>
+  </si>
+  <si>
+    <t>Pantalon de Arquero</t>
+  </si>
+  <si>
+    <t>Musculosa Warriors</t>
+  </si>
+  <si>
+    <t>Musculosa Argentina Blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Lackers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Spurs </t>
+  </si>
+  <si>
+    <t>Musculosa Argentina Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Miami </t>
+  </si>
+  <si>
+    <t>Musculosa Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Supurs </t>
+  </si>
+  <si>
+    <t>Camiseta Termica Procer Azul</t>
+  </si>
+  <si>
+    <t>Camiseta Termica Porcer Negra</t>
+  </si>
+  <si>
+    <t>Camiseta Termica Talante Negra</t>
+  </si>
+  <si>
+    <t>Camiseta Termica Rango Negra</t>
+  </si>
+  <si>
+    <t>Calza Termica Talante Negra</t>
+  </si>
+  <si>
+    <t>Calza Termica Conors Negra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Negro con detalles </t>
+  </si>
+  <si>
+    <t>Short Negro UFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chomba Union </t>
+  </si>
+  <si>
+    <t>Camiseta Argentina Niño</t>
+  </si>
+  <si>
+    <t>Camiseta Argentina Adulto</t>
+  </si>
+  <si>
+    <t>Canilleras Negras de Niño</t>
+  </si>
+  <si>
+    <t>Canilleras Azules de Niño</t>
+  </si>
+  <si>
+    <t>Canilleras Blancas de Niño</t>
+  </si>
+  <si>
+    <t>Canilleras Rojas de Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorro de lana Spiderman </t>
+  </si>
+  <si>
+    <t>Gorro de lana Road Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorro de lana Cock </t>
+  </si>
+  <si>
+    <t>Conjunto Barcelona Azul de Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto Barcelona de Niño </t>
+  </si>
+  <si>
+    <t>Conjunto Barcelona Negro de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Boca Celeste de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Boca Amarillo de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Boca Azul de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Talleres de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Talleres bebe</t>
+  </si>
+  <si>
+    <t>Conjunto Belgrano Celeste de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Belgrano Negro de Niño</t>
+  </si>
+  <si>
+    <t>Conjunto Belgrano Negro oscuro de Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto River de Niño </t>
+  </si>
+  <si>
+    <t>Conjunto River con pantalon Gris de Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto River con pantalon Negro de Niño </t>
+  </si>
+  <si>
+    <t>Conjunto River Rojo con Negro de Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto Real Madrid de Niño </t>
+  </si>
+  <si>
+    <t>Canilleras Rojas de Adulto</t>
+  </si>
+  <si>
+    <t>Canilleras Azules de Adulto</t>
+  </si>
+  <si>
+    <t>Camiseta Boca Titular 2019</t>
+  </si>
+  <si>
+    <t>Mochila Wilson Negra con detalles en Gris y Blanco</t>
+  </si>
+  <si>
+    <t>Mochila Wilson Negra con detalles en Rojo</t>
+  </si>
+  <si>
+    <t>Mochila Wilson Negra con detalles en Azul</t>
+  </si>
+  <si>
+    <t>Mochila Wilson Negra con detalles en Verde</t>
+  </si>
+  <si>
     <t>Camiseta Juventus Titular</t>
-  </si>
-  <si>
-    <t>Camiseta Juventus Alternativa</t>
-  </si>
-  <si>
-    <t>Camiseta PSG Titular</t>
-  </si>
-  <si>
-    <t>Camiseta Real Madrid Titular</t>
-  </si>
-  <si>
-    <t>Camiseta Real Madrid Alternativa</t>
-  </si>
-  <si>
-    <t>Camiseta River Titular</t>
-  </si>
-  <si>
-    <t>Camiseta River Alternativa 70 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camiseta River Alternativa </t>
-  </si>
-  <si>
-    <t>Camiseta Talleres Titular</t>
-  </si>
-  <si>
-    <t>Camiseta Talleres Alternativa</t>
-  </si>
-  <si>
-    <t>Camiseta Tottenham Alternativa</t>
-  </si>
-  <si>
-    <t>Camiseta Milan Alternativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campera Argentina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campera Belgrano </t>
-  </si>
-  <si>
-    <t>Campera Boca</t>
-  </si>
-  <si>
-    <t>Campera PSG</t>
-  </si>
-  <si>
-    <t>Campera Real Madrid</t>
-  </si>
-  <si>
-    <t>Campera River</t>
-  </si>
-  <si>
-    <t>Campera Talleres</t>
-  </si>
-  <si>
-    <t>Buzo Boca</t>
-  </si>
-  <si>
-    <t>Buzo Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Buzo Juventus</t>
-  </si>
-  <si>
-    <t>Buzo PSG</t>
-  </si>
-  <si>
-    <t>Buzo Real Madrid</t>
-  </si>
-  <si>
-    <t>Buzo River</t>
-  </si>
-  <si>
-    <t>Buzo Talleres</t>
-  </si>
-  <si>
-    <t>Conjunto Argentina</t>
-  </si>
-  <si>
-    <t>Conjunto Belgrano</t>
-  </si>
-  <si>
-    <t>Conjunto Boca</t>
-  </si>
-  <si>
-    <t>Conjunto River Titular</t>
-  </si>
-  <si>
-    <t>Conjunto River Alternativa</t>
-  </si>
-  <si>
-    <t>Conjunto Talleres</t>
-  </si>
-  <si>
-    <t>Buzo Belgrano</t>
-  </si>
-  <si>
-    <t>Campera Barcelona</t>
-  </si>
-  <si>
-    <t>Campera Instituto</t>
-  </si>
-  <si>
-    <t>Campera Juventus</t>
-  </si>
-  <si>
-    <t>Pantalon Soft Negro</t>
-  </si>
-  <si>
-    <t>Pantalon Soft Azul</t>
-  </si>
-  <si>
-    <t>Medias Belgrano</t>
-  </si>
-  <si>
-    <t>Medias Negras con Rayas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medias Negras </t>
-  </si>
-  <si>
-    <t>Medias Talleres</t>
-  </si>
-  <si>
-    <t>Medias Barcelona</t>
-  </si>
-  <si>
-    <t>Medias Boca</t>
-  </si>
-  <si>
-    <t>Medias Negras</t>
-  </si>
-  <si>
-    <t>Medias PSG</t>
-  </si>
-  <si>
-    <t>Medias River</t>
-  </si>
-  <si>
-    <t>Meidas Argentina Negra</t>
-  </si>
-  <si>
-    <t>Medias Argentina Azul</t>
-  </si>
-  <si>
-    <t>Medias Argentina Blancas</t>
-  </si>
-  <si>
-    <t>Medias Chelsea</t>
-  </si>
-  <si>
-    <t>Medias Instituto</t>
-  </si>
-  <si>
-    <t>Medias Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medias River </t>
-  </si>
-  <si>
-    <t>Medias River Violetas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musculosa Talleres </t>
-  </si>
-  <si>
-    <t>Camiseta de Niño River Titular 2018</t>
-  </si>
-  <si>
-    <t>Camiseta de Niño River Titular 2019</t>
-  </si>
-  <si>
-    <t>Camiseta Milan</t>
-  </si>
-  <si>
-    <t>Camiseta Juventus</t>
-  </si>
-  <si>
-    <t>Camiseta Real Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camiseta Barcelona </t>
-  </si>
-  <si>
-    <t>Camiseta Boca</t>
-  </si>
-  <si>
-    <t>Camiseta Niño PSG Titular 2018</t>
-  </si>
-  <si>
-    <t>Camiseta Niño PSG Titular 2019</t>
-  </si>
-  <si>
-    <t>Campera Argentina Negra</t>
-  </si>
-  <si>
-    <t>Campera Argentina Blanca</t>
-  </si>
-  <si>
-    <t>Campera Argentina Azul Francia</t>
-  </si>
-  <si>
-    <t>Campera Argentina Azul Marino</t>
-  </si>
-  <si>
-    <t>Buzo Belgrano con cierre al costado</t>
-  </si>
-  <si>
-    <t>Pantalon Camuflado</t>
-  </si>
-  <si>
-    <t>Pantalon Negro Algodon</t>
-  </si>
-  <si>
-    <t>Pantalon Azul Algodon</t>
-  </si>
-  <si>
-    <t>Pantalon Gris Algodon</t>
-  </si>
-  <si>
-    <t>Pantalon Soft Belgrano</t>
-  </si>
-  <si>
-    <t>Pantalon Soft Talleres</t>
-  </si>
-  <si>
-    <t>Pantalon Acetato Belgrano</t>
-  </si>
-  <si>
-    <t>Pantalon Acetato Talleres</t>
-  </si>
-  <si>
-    <t>Pantalon Algodon Belgrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalon Soft Negro con tiras Naranjas </t>
-  </si>
-  <si>
-    <t>Pantalon Soft Negro con tiras Azules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalon Soft azul </t>
-  </si>
-  <si>
-    <t>Chomba Belgrano Negra</t>
-  </si>
-  <si>
-    <t>Chomba Belgrano Rayada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomba Talleres Azul </t>
-  </si>
-  <si>
-    <t>Chomba Talleres Azul Rayada</t>
-  </si>
-  <si>
-    <t>Chomba Talleres Blanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomba Talleres Blanca Rayada </t>
-  </si>
-  <si>
-    <t>Chomba River Roja</t>
-  </si>
-  <si>
-    <t>Chomba River Gris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomba River negra </t>
-  </si>
-  <si>
-    <t>Chomba Boca Azul Francia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomba Boca Azul Marino con cuello amarillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chomba Boca Azul Marino </t>
-  </si>
-  <si>
-    <t>Chomba Roma</t>
-  </si>
-  <si>
-    <t>Taza Boca</t>
-  </si>
-  <si>
-    <t>Taza River</t>
-  </si>
-  <si>
-    <t>Taza Belgrano</t>
-  </si>
-  <si>
-    <t>Taza Talleres</t>
-  </si>
-  <si>
-    <t>Protector Bucal Junior</t>
-  </si>
-  <si>
-    <t>En Rosa y Violeta</t>
-  </si>
-  <si>
-    <t>Protector Bucal Senior</t>
-  </si>
-  <si>
-    <t>En Rosa, Verde y Amarrillo</t>
-  </si>
-  <si>
-    <t>Vendas 10 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendas 8 cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiparras Hydro </t>
-  </si>
-  <si>
-    <t>Lente Champ Adulto</t>
-  </si>
-  <si>
-    <t>Antiparras Konna</t>
-  </si>
-  <si>
-    <t>Adulto</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero Negro</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero Azul</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero Rojo</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero Boca</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero Boca Pixelado</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero River</t>
-  </si>
-  <si>
-    <t>Guantes de Arquero River Pixelado</t>
-  </si>
-  <si>
-    <t>Guantes Arquero Barcelona</t>
-  </si>
-  <si>
-    <t>Billetera Boca</t>
-  </si>
-  <si>
-    <t>Billetera River</t>
-  </si>
-  <si>
-    <t>Billetera Talleres</t>
-  </si>
-  <si>
-    <t>Cintas de Capitan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcelona, Real Madrid, Juventus, Argentina, Boca, River, Belgrano, Talleres, Racing y sin equipo. </t>
-  </si>
-  <si>
-    <t>Llavero Boca</t>
-  </si>
-  <si>
-    <t>Llaveros Belgrano</t>
-  </si>
-  <si>
-    <t>Llaveros Talleres</t>
-  </si>
-  <si>
-    <t>Camiseta Boca Alternativa Blanca</t>
-  </si>
-  <si>
-    <t>Camiseta River Alternativa Blanca</t>
-  </si>
-  <si>
-    <t>Camiseta River 70 años</t>
-  </si>
-  <si>
-    <t>Camiseta River Alternativa Negra</t>
-  </si>
-  <si>
-    <t>Conjunto Barcelona</t>
-  </si>
-  <si>
-    <t>Conjunto Juventus</t>
-  </si>
-  <si>
-    <t>Conjunto PSG</t>
-  </si>
-  <si>
-    <t>Conjunto Real Madrid</t>
-  </si>
-  <si>
-    <t>Conjunto River</t>
-  </si>
-  <si>
-    <t>Conjunto Tottenham</t>
-  </si>
-  <si>
-    <t>Conjunto Argentina Azul Acetato</t>
-  </si>
-  <si>
-    <t>Conjunto Argentina con Celeste Acetato</t>
-  </si>
-  <si>
-    <t>Conjunto Argentina Con Mangas Celeste Acetato</t>
-  </si>
-  <si>
-    <t>Conjunto Argentina Soft</t>
-  </si>
-  <si>
-    <t>Vendas 5 cm</t>
-  </si>
-  <si>
-    <t>Llavero Pelota Belgrano</t>
-  </si>
-  <si>
-    <t>Llavero Pelota Argentina</t>
-  </si>
-  <si>
-    <t>Llavero Pelota Talleres</t>
-  </si>
-  <si>
-    <t>Tarjetas de Arbitro</t>
-  </si>
-  <si>
-    <t>Aguja para inflar pelotas</t>
-  </si>
-  <si>
-    <t>Cartuchera River</t>
-  </si>
-  <si>
-    <t>Cartuchera Boca</t>
-  </si>
-  <si>
-    <t>Cartuchera Belgrano</t>
-  </si>
-  <si>
-    <t>Cartuchera Talleres</t>
-  </si>
-  <si>
-    <t>Cartuchera Instituto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canilleras Effort Adulto </t>
-  </si>
-  <si>
-    <t>Canilleras Effort Niño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medias Gol de Oro Negras </t>
-  </si>
-  <si>
-    <t>Medias Gol de Oro Blancas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medias Verdes </t>
-  </si>
-  <si>
-    <t>Gorra Fornite Azul Juvenil</t>
-  </si>
-  <si>
-    <t>Gorra Fornite Blanca Juvenil</t>
-  </si>
-  <si>
-    <t>Gorra ATR Roja Juvenil</t>
-  </si>
-  <si>
-    <t>Gorra Puma gris Juvenil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorra Jordan Niño </t>
-  </si>
-  <si>
-    <t>Gorra Fornite Camuflada Niño</t>
-  </si>
-  <si>
-    <t>Gorra Boca Niño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorra River Niño </t>
-  </si>
-  <si>
-    <t>Gorra Barcelona con Red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra HDP con Red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Boca Tevez con red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Belgrano con red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra River Roja con Red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra River Negra con Red Adulto</t>
-  </si>
-  <si>
-    <t>Gorra River Negra Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Gorin Bross Cock Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Gorin Bross Superman Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Gorin Bross Stallion Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Freedom Negra Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Freedom bisera Roja Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Billabong Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Nike Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Adidas Adulto</t>
-  </si>
-  <si>
-    <t>Gorra Tommy Adulto</t>
-  </si>
-  <si>
-    <t>Short con tira Roja</t>
-  </si>
-  <si>
-    <t>Short con tira Naranja</t>
-  </si>
-  <si>
-    <t>Short con tira Verde</t>
-  </si>
-  <si>
-    <t>Short con tira azul</t>
-  </si>
-  <si>
-    <t>Short con tira Blanca</t>
-  </si>
-  <si>
-    <t>Short con tira Amarilla</t>
-  </si>
-  <si>
-    <t>Short tottenham</t>
-  </si>
-  <si>
-    <t>Short Juventus</t>
-  </si>
-  <si>
-    <t>Short Boca</t>
-  </si>
-  <si>
-    <t>Short 3 tiras Gris</t>
-  </si>
-  <si>
-    <t>Short 3 tiras Negro</t>
-  </si>
-  <si>
-    <t>Short 3 tiras Azul</t>
-  </si>
-  <si>
-    <t>Pantalon de Arquero</t>
-  </si>
-  <si>
-    <t>Musculosa Warriors</t>
-  </si>
-  <si>
-    <t>Musculosa Argentina Blanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musculosa Lackers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musculosa Spurs </t>
-  </si>
-  <si>
-    <t>Musculosa Argentina Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musculosa Miami </t>
-  </si>
-  <si>
-    <t>Musculosa Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musculosa Supurs </t>
-  </si>
-  <si>
-    <t>Camiseta Termica Procer Azul</t>
-  </si>
-  <si>
-    <t>Camiseta Termica Porcer Negra</t>
-  </si>
-  <si>
-    <t>Camiseta Termica Talante Negra</t>
-  </si>
-  <si>
-    <t>Camiseta Termica Rango Negra</t>
-  </si>
-  <si>
-    <t>Calza Termica Talante Negra</t>
-  </si>
-  <si>
-    <t>Calza Termica Conors Negra</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1782,7 @@
       <c r="C33" s="2">
         <v>10.0</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="2"/>
@@ -1692,7 +1800,7 @@
       <c r="C34" s="2">
         <v>10.0</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="2"/>
@@ -3183,7 +3291,7 @@
       <c r="C118" s="2">
         <v>3.0</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E118" s="2"/>
@@ -3399,7 +3507,7 @@
       <c r="B131" s="2">
         <v>4.0</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3410,7 +3518,7 @@
       <c r="B132" s="2">
         <v>4.0</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3421,7 +3529,7 @@
       <c r="B133" s="2">
         <v>4.0</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3486,7 +3594,7 @@
       <c r="C137" s="2">
         <v>4.0</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>135</v>
       </c>
       <c r="J137" s="2">
@@ -3520,7 +3628,7 @@
       <c r="C139" s="2">
         <v>4.0</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J139" s="2">
@@ -3605,7 +3713,7 @@
       <c r="C144" s="2">
         <v>1.0</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J144" s="2">
@@ -3771,7 +3879,7 @@
       <c r="B155" s="2">
         <v>17.0</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -3785,7 +3893,7 @@
       <c r="B156" s="2">
         <v>17.0</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -3802,7 +3910,7 @@
       <c r="D157" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="2">
         <v>420.0</v>
       </c>
     </row>
@@ -3861,7 +3969,7 @@
       <c r="C161" s="2">
         <v>1.0</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="2" t="s">
         <v>163</v>
       </c>
       <c r="J161" s="2">
@@ -3895,7 +4003,7 @@
       <c r="C163" s="2">
         <v>2.0</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J163" s="2">
@@ -4065,7 +4173,7 @@
       <c r="C173" s="2">
         <v>1.0</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="2" t="s">
         <v>175</v>
       </c>
       <c r="J173" s="2">
@@ -4150,7 +4258,7 @@
       <c r="C178" s="2">
         <v>2.0</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="2" t="s">
         <v>176</v>
       </c>
       <c r="J178" s="2">
@@ -4167,7 +4275,7 @@
       <c r="C179" s="2">
         <v>2.0</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="2" t="s">
         <v>177</v>
       </c>
       <c r="J179" s="2">
@@ -4184,7 +4292,7 @@
       <c r="C180" s="2">
         <v>2.0</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>178</v>
       </c>
       <c r="J180" s="2">
@@ -4500,10 +4608,10 @@
       <c r="A200" s="2">
         <v>199.0</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>17.0</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="2">
         <v>2.0</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -4537,7 +4645,7 @@
       <c r="C202" s="2">
         <v>3.0</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4551,7 +4659,7 @@
       <c r="C203" s="2">
         <v>4.0</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4601,6 +4709,9 @@
       <c r="D207" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="J207" s="2">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="2">
@@ -4612,6 +4723,9 @@
       <c r="D208" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="J208" s="2">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="1">
@@ -4623,6 +4737,9 @@
       <c r="D209" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="J209" s="2">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="1">
@@ -4634,6 +4751,9 @@
       <c r="D210" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="J210" s="2">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="2">
@@ -4648,6 +4768,9 @@
       <c r="D211" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J211" s="2">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="1">
@@ -4659,6 +4782,9 @@
       <c r="D212" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="J212" s="3">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="1">
@@ -4670,6 +4796,9 @@
       <c r="D213" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="J213" s="3">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="1">
@@ -4681,6 +4810,9 @@
       <c r="D214" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="J214" s="3">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="1">
@@ -4692,6 +4824,9 @@
       <c r="D215" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="J215" s="3">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="2">
@@ -4703,6 +4838,9 @@
       <c r="D216" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="J216" s="2">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="1">
@@ -4714,6 +4852,9 @@
       <c r="D217" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="J217" s="2">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="1">
@@ -4728,6 +4869,9 @@
       <c r="D218" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="J218" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="2">
@@ -4742,6 +4886,9 @@
       <c r="D219" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="J219" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="1">
@@ -4753,8 +4900,11 @@
       <c r="C220" s="2">
         <v>7.0</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="2" t="s">
         <v>213</v>
+      </c>
+      <c r="J220" s="2">
+        <v>400.0</v>
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
@@ -4767,6 +4917,9 @@
       <c r="D221" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="J221" s="2">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="A222" s="1">
@@ -4781,6 +4934,9 @@
       <c r="D222" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="J222" s="2">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="2">
@@ -4792,8 +4948,11 @@
       <c r="C223" s="2">
         <v>3.0</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="J223" s="2">
+        <v>400.0</v>
       </c>
     </row>
     <row r="224" ht="14.25" customHeight="1">
@@ -4806,8 +4965,11 @@
       <c r="C224" s="2">
         <v>2.0</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="2" t="s">
         <v>217</v>
+      </c>
+      <c r="J224" s="2">
+        <v>400.0</v>
       </c>
     </row>
     <row r="225" ht="14.25" customHeight="1">
@@ -4820,8 +4982,11 @@
       <c r="C225" s="2">
         <v>2.0</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="2" t="s">
         <v>218</v>
+      </c>
+      <c r="J225" s="2">
+        <v>400.0</v>
       </c>
     </row>
     <row r="226" ht="14.25" customHeight="1">
@@ -4837,6 +5002,9 @@
       <c r="D226" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="J226" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="2">
@@ -4845,8 +5013,11 @@
       <c r="B227" s="2">
         <v>20.0</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="J227" s="2">
+        <v>600.0</v>
       </c>
     </row>
     <row r="228" ht="14.25" customHeight="1">
@@ -4856,8 +5027,11 @@
       <c r="B228" s="2">
         <v>20.0</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="J228" s="2">
+        <v>600.0</v>
       </c>
     </row>
     <row r="229" ht="14.25" customHeight="1">
@@ -4867,8 +5041,11 @@
       <c r="B229" s="2">
         <v>20.0</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="2" t="s">
         <v>222</v>
+      </c>
+      <c r="J229" s="2">
+        <v>600.0</v>
       </c>
     </row>
     <row r="230" ht="14.25" customHeight="1">
@@ -4878,7 +5055,7 @@
       <c r="B230" s="2">
         <v>20.0</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4889,7 +5066,7 @@
       <c r="B231" s="2">
         <v>20.0</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4900,8 +5077,11 @@
       <c r="B232" s="2">
         <v>20.0</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="2" t="s">
         <v>225</v>
+      </c>
+      <c r="J232" s="2">
+        <v>500.0</v>
       </c>
     </row>
     <row r="233" ht="14.25" customHeight="1">
@@ -4914,6 +5094,9 @@
       <c r="D233" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="J233" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="234" ht="14.25" customHeight="1">
       <c r="A234" s="1">
@@ -4925,6 +5108,9 @@
       <c r="D234" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="J234" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="235" ht="14.25" customHeight="1">
       <c r="A235" s="2">
@@ -4936,6 +5122,9 @@
       <c r="D235" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="J235" s="2">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="A236" s="1">
@@ -4944,7 +5133,7 @@
       <c r="B236" s="2">
         <v>6.0</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4955,7 +5144,7 @@
       <c r="B237" s="2">
         <v>6.0</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5082,7 +5271,7 @@
       <c r="A248" s="1">
         <v>247.0</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>4.0</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -5099,7 +5288,7 @@
       <c r="C249" s="2">
         <v>19.0</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5113,7 +5302,7 @@
       <c r="C250" s="2">
         <v>6.0</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5155,7 +5344,7 @@
       <c r="C253" s="2">
         <v>6.0</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5219,7 +5408,7 @@
       <c r="B258" s="2">
         <v>23.0</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5230,7 +5419,7 @@
       <c r="B259" s="2">
         <v>23.0</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5263,7 +5452,7 @@
       <c r="B262" s="2">
         <v>25.0</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5271,7 +5460,7 @@
       <c r="A263" s="1">
         <v>262.0</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>26.0</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -5289,50 +5478,526 @@
         <v>254</v>
       </c>
     </row>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1">
+      <c r="A265" s="1">
+        <v>264.0</v>
+      </c>
+      <c r="B265" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J265" s="2">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25" customHeight="1">
+      <c r="A266" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B266" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J266" s="2">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25" customHeight="1">
+      <c r="A267" s="1">
+        <v>266.0</v>
+      </c>
+      <c r="B267" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C267" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J267" s="3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25" customHeight="1">
+      <c r="A268" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B268" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C268" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J268" s="2">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25" customHeight="1">
+      <c r="A269" s="1">
+        <v>268.0</v>
+      </c>
+      <c r="B269" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C269" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J269" s="2">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25" customHeight="1">
+      <c r="A270" s="1">
+        <v>269.0</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C270" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25" customHeight="1">
+      <c r="A271" s="1">
+        <v>270.0</v>
+      </c>
+      <c r="B271" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25" customHeight="1">
+      <c r="A272" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="B272" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25" customHeight="1">
+      <c r="A273" s="1">
+        <v>272.0</v>
+      </c>
+      <c r="B273" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25" customHeight="1">
+      <c r="A274" s="1">
+        <v>273.0</v>
+      </c>
+      <c r="B274" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25" customHeight="1">
+      <c r="A275" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B275" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25" customHeight="1">
+      <c r="A276" s="1">
+        <v>275.0</v>
+      </c>
+      <c r="B276" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="A277" s="1">
+        <v>276.0</v>
+      </c>
+      <c r="B277" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25" customHeight="1">
+      <c r="A278" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B278" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C278" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25" customHeight="1">
+      <c r="A279" s="1">
+        <v>278.0</v>
+      </c>
+      <c r="B279" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C279" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25" customHeight="1">
+      <c r="A280" s="1">
+        <v>279.0</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C280" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25" customHeight="1">
+      <c r="A281" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="B281" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C281" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25" customHeight="1">
+      <c r="A282" s="1">
+        <v>281.0</v>
+      </c>
+      <c r="B282" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C282" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25" customHeight="1">
+      <c r="A283" s="1">
+        <v>282.0</v>
+      </c>
+      <c r="B283" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C283" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25" customHeight="1">
+      <c r="A284" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B284" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C284" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25" customHeight="1">
+      <c r="A285" s="1">
+        <v>284.0</v>
+      </c>
+      <c r="B285" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C285" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25" customHeight="1">
+      <c r="A286" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="B286" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C286" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25" customHeight="1">
+      <c r="A287" s="1">
+        <v>286.0</v>
+      </c>
+      <c r="B287" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C287" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25" customHeight="1">
+      <c r="A288" s="1">
+        <v>287.0</v>
+      </c>
+      <c r="B288" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C288" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25" customHeight="1">
+      <c r="A289" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="B289" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C289" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25" customHeight="1">
+      <c r="A290" s="1">
+        <v>289.0</v>
+      </c>
+      <c r="B290" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C290" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25" customHeight="1">
+      <c r="A291" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B291" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C291" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="A292" s="1">
+        <v>291.0</v>
+      </c>
+      <c r="B292" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C292" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25" customHeight="1">
+      <c r="A293" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="B293" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C293" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="A294" s="1">
+        <v>293.0</v>
+      </c>
+      <c r="B294" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25" customHeight="1">
+      <c r="A295" s="1">
+        <v>294.0</v>
+      </c>
+      <c r="B295" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25" customHeight="1">
+      <c r="A296" s="1">
+        <v>295.0</v>
+      </c>
+      <c r="B296" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25" customHeight="1">
+      <c r="A297" s="1">
+        <v>296.0</v>
+      </c>
+      <c r="B297" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="A298" s="1">
+        <v>297.0</v>
+      </c>
+      <c r="B298" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25" customHeight="1">
+      <c r="A299" s="1">
+        <v>298.0</v>
+      </c>
+      <c r="B299" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25" customHeight="1">
+      <c r="A300" s="1">
+        <v>299.0</v>
+      </c>
+      <c r="B300" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25" customHeight="1">
+      <c r="A301" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="B301" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C301" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25" customHeight="1">
+      <c r="A302" s="1">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25" customHeight="1">
+      <c r="A303" s="1">
+        <v>302.0</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25" customHeight="1">
+      <c r="A304" s="1">
+        <v>303.0</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25" customHeight="1">
+      <c r="A305" s="1">
+        <v>304.0</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25" customHeight="1">
+      <c r="A306" s="1">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25" customHeight="1">
+      <c r="A307" s="1">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25" customHeight="1">
+      <c r="A308" s="1">
+        <v>307.0</v>
+      </c>
+    </row>
     <row r="309" ht="14.25" customHeight="1"/>
     <row r="310" ht="14.25" customHeight="1"/>
     <row r="311" ht="14.25" customHeight="1"/>
@@ -6024,6 +6689,9 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/data/Productos.xlsx
+++ b/data/Productos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
   <si>
     <t>Id</t>
   </si>
@@ -51,165 +51,258 @@
     <t>Short Ajax Alternativo</t>
   </si>
   <si>
-    <t>BocaTitA.jpg</t>
+    <t>0076.jpeg</t>
   </si>
   <si>
     <t>Short Argentina Titular</t>
   </si>
   <si>
-    <t>BocaAltA.jpg</t>
+    <t>0061.jpeg</t>
   </si>
   <si>
     <t>Short Argentina Alternativo</t>
   </si>
   <si>
-    <t>BocaArqA.jpg</t>
+    <t>0081.jpeg</t>
   </si>
   <si>
     <t>Short Barcelona Titular</t>
   </si>
   <si>
-    <t>RiverTitA.jpg</t>
+    <t>0067.jpeg</t>
   </si>
   <si>
     <t>Short Barcelona Alternativo</t>
   </si>
   <si>
-    <t>RiverAltA.jpg</t>
-  </si>
-  <si>
     <t>Short Belgrano Titular</t>
   </si>
   <si>
-    <t>RiverArqA.jpg</t>
+    <t>0070.jpeg</t>
   </si>
   <si>
     <t>Short Belgrano Alternativo</t>
   </si>
   <si>
-    <t>BocaTitN.jpg</t>
+    <t>0072.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Short Boca Titular </t>
   </si>
   <si>
-    <t>BelgranoTitA.jpg</t>
+    <t>0069.jpeg</t>
   </si>
   <si>
     <t>Short Borussia Dortmund Titular</t>
   </si>
   <si>
-    <t>Est.jpg</t>
-  </si>
-  <si>
     <t>Short Manchester City Titular</t>
   </si>
   <si>
+    <t>0073.jpeg</t>
+  </si>
+  <si>
     <t>Short Juventus Titular</t>
   </si>
   <si>
+    <t>0074.jpeg</t>
+  </si>
+  <si>
     <t>Short Juventus Alternativo Blanco</t>
   </si>
   <si>
+    <t>0075.jpeg</t>
+  </si>
+  <si>
     <t>Short Juventus Alternativo Celeste</t>
   </si>
   <si>
+    <t>2282.jpeg</t>
+  </si>
+  <si>
     <t>Short PSG Titular</t>
   </si>
   <si>
+    <t>0077.jpeg</t>
+  </si>
+  <si>
     <t>Short Real Madrid Alternativo</t>
   </si>
   <si>
+    <t>0078.jpeg</t>
+  </si>
+  <si>
     <t>Short River Titular</t>
   </si>
   <si>
+    <t>0071.jpeg</t>
+  </si>
+  <si>
     <t>Short River Alternativo</t>
   </si>
   <si>
+    <t>0064.jpeg</t>
+  </si>
+  <si>
     <t>Short Talleres Titular</t>
   </si>
   <si>
+    <t>0082.jpeg</t>
+  </si>
+  <si>
     <t>Short Tottenham Titular</t>
   </si>
   <si>
     <t>Short Francia Titular</t>
   </si>
   <si>
+    <t>0066.jpeg</t>
+  </si>
+  <si>
     <t>Short Negro</t>
   </si>
   <si>
+    <t>0062.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Ajax Alternativa</t>
   </si>
   <si>
+    <t>0038.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Argentina Alternativa</t>
   </si>
   <si>
+    <t>0018.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Barcelona Titular</t>
   </si>
   <si>
+    <t>0027.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Barcelona Alternativa</t>
   </si>
   <si>
+    <t>0023.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Belgrano Titular</t>
   </si>
   <si>
+    <t>0025.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Belgrano Alternativa</t>
   </si>
   <si>
+    <t>0026.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Boca Titular</t>
   </si>
   <si>
+    <t>0024.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Boca Alternativa</t>
   </si>
   <si>
+    <t>0030.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Borussia Dortmund Alternativa</t>
   </si>
   <si>
+    <t>0035.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Manchester City Titular</t>
   </si>
   <si>
+    <t>0020.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Juventus Alternativa Blanca</t>
   </si>
   <si>
+    <t>0036.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Juventus Alternativa Celeste</t>
   </si>
   <si>
+    <t>0028.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta PSG Titular</t>
   </si>
   <si>
+    <t>0017.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Real Madrid Titular</t>
   </si>
   <si>
     <t>Camiseta Real Madrid Alternativa</t>
   </si>
   <si>
+    <t>0019.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta River Titular</t>
   </si>
   <si>
+    <t>0022.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta River Alternativa 70 años</t>
   </si>
   <si>
+    <t>0032.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Camiseta River Alternativa </t>
   </si>
   <si>
     <t>Camiseta Talleres Titular</t>
   </si>
   <si>
+    <t>0021.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Talleres Alternativa</t>
   </si>
   <si>
+    <t>0033.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Tottenham Alternativa</t>
   </si>
   <si>
+    <t>0034.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Milan Alternativa</t>
   </si>
   <si>
+    <t>0029.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campera Argentina </t>
   </si>
   <si>
+    <t>0049.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campera Belgrano </t>
   </si>
   <si>
+    <t>0048.jpeg</t>
+  </si>
+  <si>
     <t>Campera Boca</t>
   </si>
   <si>
@@ -219,6 +312,9 @@
     <t>Campera Real Madrid</t>
   </si>
   <si>
+    <t>0050.jpeg</t>
+  </si>
+  <si>
     <t>Campera River</t>
   </si>
   <si>
@@ -228,9 +324,15 @@
     <t>Buzo Boca</t>
   </si>
   <si>
+    <t>0001.jpeg</t>
+  </si>
+  <si>
     <t>Buzo Borussia Dortmund</t>
   </si>
   <si>
+    <t>0003.jpeg</t>
+  </si>
+  <si>
     <t>Buzo Juventus</t>
   </si>
   <si>
@@ -243,168 +345,363 @@
     <t>Buzo River</t>
   </si>
   <si>
+    <t>0002.jpeg</t>
+  </si>
+  <si>
     <t>Buzo Talleres</t>
   </si>
   <si>
     <t>Conjunto Argentina</t>
   </si>
   <si>
+    <t>2010.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Belgrano</t>
   </si>
   <si>
+    <t>2002.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Boca</t>
   </si>
   <si>
+    <t>2004.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto River Titular</t>
   </si>
   <si>
+    <t>2007.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto River Alternativa</t>
   </si>
   <si>
+    <t>2012.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Talleres</t>
   </si>
   <si>
+    <t>2003.jpeg</t>
+  </si>
+  <si>
     <t>Buzo Belgrano</t>
   </si>
   <si>
+    <t>0005.jpeg</t>
+  </si>
+  <si>
+    <t>0004.jpeg</t>
+  </si>
+  <si>
+    <t>0006.jpeg</t>
+  </si>
+  <si>
+    <t>0007.jpeg</t>
+  </si>
+  <si>
+    <t>0039.jpeg</t>
+  </si>
+  <si>
     <t>Campera Barcelona</t>
   </si>
   <si>
+    <t>0040.jpeg</t>
+  </si>
+  <si>
+    <t>0041.jpeg</t>
+  </si>
+  <si>
     <t>Campera Instituto</t>
   </si>
   <si>
+    <t>0042.jpeg</t>
+  </si>
+  <si>
     <t>Campera Juventus</t>
   </si>
   <si>
+    <t>0043.jpeg</t>
+  </si>
+  <si>
+    <t>0044.jpeg</t>
+  </si>
+  <si>
+    <t>0046.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Soft Negro</t>
   </si>
   <si>
+    <t>4813.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Soft Azul</t>
   </si>
   <si>
+    <t>4811.jpeg</t>
+  </si>
+  <si>
     <t>Medias Belgrano</t>
   </si>
   <si>
+    <t>1937.jpeg</t>
+  </si>
+  <si>
     <t>Medias Negras con Rayas</t>
   </si>
   <si>
+    <t>4810.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medias Negras </t>
   </si>
   <si>
+    <t>4808.jpeg</t>
+  </si>
+  <si>
     <t>Medias Talleres</t>
   </si>
   <si>
+    <t>1943.jpeg</t>
+  </si>
+  <si>
     <t>Medias Barcelona</t>
   </si>
   <si>
+    <t>1952.jpeg</t>
+  </si>
+  <si>
     <t>Medias Boca</t>
   </si>
   <si>
+    <t>1144.jpeg</t>
+  </si>
+  <si>
     <t>Medias Negras</t>
   </si>
   <si>
+    <t>4805.jpeg</t>
+  </si>
+  <si>
     <t>Medias PSG</t>
   </si>
   <si>
+    <t>4806.jpeg</t>
+  </si>
+  <si>
     <t>Medias River</t>
   </si>
   <si>
+    <t>1936.jpeg</t>
+  </si>
+  <si>
+    <t>1953.jpeg</t>
+  </si>
+  <si>
     <t>Meidas Argentina Negra</t>
   </si>
   <si>
     <t>Medias Argentina Azul</t>
   </si>
   <si>
+    <t>1938.jpeg</t>
+  </si>
+  <si>
     <t>Medias Argentina Blancas</t>
   </si>
   <si>
+    <t>1941.jpeg</t>
+  </si>
+  <si>
+    <t>1944.jpeg</t>
+  </si>
+  <si>
     <t>Medias Chelsea</t>
   </si>
   <si>
+    <t>1946.jpeg</t>
+  </si>
+  <si>
     <t>Medias Instituto</t>
   </si>
   <si>
+    <t>1913.jpeg</t>
+  </si>
+  <si>
     <t>Medias Rojas</t>
   </si>
   <si>
+    <t>1955.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medias River </t>
   </si>
   <si>
     <t>Medias River Violetas</t>
   </si>
   <si>
+    <t>1934.jpeg</t>
+  </si>
+  <si>
+    <t>1963.jpeg</t>
+  </si>
+  <si>
+    <t>1960.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Musculosa Talleres </t>
   </si>
   <si>
+    <t>1961.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta de Niño River Titular 2018</t>
   </si>
   <si>
+    <t>1965.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta de Niño River Titular 2019</t>
   </si>
   <si>
+    <t>1968.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Milan</t>
   </si>
   <si>
+    <t>1970.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Juventus</t>
   </si>
   <si>
+    <t>1959.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Real Madrid</t>
   </si>
   <si>
+    <t>1971.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Camiseta Barcelona </t>
   </si>
   <si>
+    <t>1973.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Boca</t>
   </si>
   <si>
+    <t>1975.jpeg</t>
+  </si>
+  <si>
+    <t>1956.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Niño PSG Titular 2018</t>
   </si>
   <si>
+    <t>1981.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Niño PSG Titular 2019</t>
   </si>
   <si>
+    <t>1957.jpeg</t>
+  </si>
+  <si>
     <t>Campera Argentina Negra</t>
   </si>
   <si>
+    <t>1987.jpeg</t>
+  </si>
+  <si>
     <t>Campera Argentina Blanca</t>
   </si>
   <si>
+    <t>1991.jpeg</t>
+  </si>
+  <si>
     <t>Campera Argentina Azul Francia</t>
   </si>
   <si>
+    <t>1990.jpeg</t>
+  </si>
+  <si>
     <t>Campera Argentina Azul Marino</t>
   </si>
   <si>
+    <t>1988.jpeg</t>
+  </si>
+  <si>
     <t>Buzo Belgrano con cierre al costado</t>
   </si>
   <si>
+    <t>1982.jpeg</t>
+  </si>
+  <si>
+    <t>1986.jpeg</t>
+  </si>
+  <si>
+    <t>1992.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Camuflado</t>
   </si>
   <si>
+    <t>0597.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Negro Algodon</t>
   </si>
   <si>
+    <t>0563.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Azul Algodon</t>
   </si>
   <si>
     <t>Pantalon Gris Algodon</t>
   </si>
   <si>
+    <t>0581.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Soft Belgrano</t>
   </si>
   <si>
     <t>Pantalon Soft Talleres</t>
   </si>
   <si>
+    <t>0561.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Acetato Belgrano</t>
   </si>
   <si>
+    <t>0594.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Acetato Talleres</t>
   </si>
   <si>
+    <t>0576.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon Algodon Belgrano</t>
   </si>
   <si>
+    <t>0588.jpeg</t>
+  </si>
+  <si>
+    <t>0060.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pantalon Soft Negro con tiras Naranjas </t>
   </si>
   <si>
@@ -426,6 +723,9 @@
     <t>Chomba Talleres Azul Rayada</t>
   </si>
   <si>
+    <t>0059.jpeg</t>
+  </si>
+  <si>
     <t>Chomba Talleres Blanca</t>
   </si>
   <si>
@@ -444,12 +744,18 @@
     <t>Chomba Boca Azul Francia</t>
   </si>
   <si>
+    <t>0057.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chomba Boca Azul Marino con cuello amarillo </t>
   </si>
   <si>
     <t xml:space="preserve">Chomba Boca Azul Marino </t>
   </si>
   <si>
+    <t>0058.jpeg</t>
+  </si>
+  <si>
     <t>Chomba Roma</t>
   </si>
   <si>
@@ -543,48 +849,111 @@
     <t>Llaveros Talleres</t>
   </si>
   <si>
+    <t>0010.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Boca Alternativa Blanca</t>
   </si>
   <si>
+    <t>0008.jpeg</t>
+  </si>
+  <si>
+    <t>0011.jpeg</t>
+  </si>
+  <si>
+    <t>0016.jpeg</t>
+  </si>
+  <si>
+    <t>0009.jpeg</t>
+  </si>
+  <si>
+    <t>0015.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta River Alternativa Blanca</t>
   </si>
   <si>
+    <t>0012.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta River 70 años</t>
   </si>
   <si>
+    <t>0014.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta River Alternativa Negra</t>
   </si>
   <si>
+    <t>0013.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Barcelona</t>
   </si>
   <si>
+    <t>1915.jpeg</t>
+  </si>
+  <si>
+    <t>1899.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Juventus</t>
   </si>
   <si>
+    <t>1914.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto PSG</t>
   </si>
   <si>
+    <t>1907.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Real Madrid</t>
   </si>
   <si>
+    <t>1910.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto River</t>
   </si>
   <si>
+    <t>1905.jpeg</t>
+  </si>
+  <si>
+    <t>1892.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Tottenham</t>
   </si>
   <si>
+    <t>1909.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Argentina Azul Acetato</t>
   </si>
   <si>
+    <t>1891.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Argentina con Celeste Acetato</t>
   </si>
   <si>
     <t>Conjunto Argentina Con Mangas Celeste Acetato</t>
   </si>
   <si>
+    <t>1896.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Argentina Soft</t>
   </si>
   <si>
+    <t>1893.jpeg</t>
+  </si>
+  <si>
+    <t>1902.jpeg</t>
+  </si>
+  <si>
     <t>Vendas 5 cm</t>
   </si>
   <si>
@@ -627,12 +996,21 @@
     <t xml:space="preserve">Medias Gol de Oro Negras </t>
   </si>
   <si>
+    <t>2025.jpeg</t>
+  </si>
+  <si>
     <t>Medias Gol de Oro Blancas</t>
   </si>
   <si>
+    <t>2027.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medias Verdes </t>
   </si>
   <si>
+    <t>2252.jpeg</t>
+  </si>
+  <si>
     <t>Gorra Fornite Azul Juvenil</t>
   </si>
   <si>
@@ -705,63 +1083,120 @@
     <t>Gorra Tommy Adulto</t>
   </si>
   <si>
-    <t>Short con tira Roja</t>
+    <t>Short con tira Rosa</t>
+  </si>
+  <si>
+    <t>2209.jpeg</t>
   </si>
   <si>
     <t>Short con tira Naranja</t>
   </si>
   <si>
+    <t>2213.jpeg</t>
+  </si>
+  <si>
     <t>Short con tira Verde</t>
   </si>
   <si>
+    <t>2208.jpeg</t>
+  </si>
+  <si>
     <t>Short con tira azul</t>
   </si>
   <si>
+    <t>2214.jpeg</t>
+  </si>
+  <si>
     <t>Short con tira Blanca</t>
   </si>
   <si>
+    <t>2207.jpeg</t>
+  </si>
+  <si>
     <t>Short con tira Amarilla</t>
   </si>
   <si>
+    <t>2206.jpeg</t>
+  </si>
+  <si>
     <t>Short tottenham</t>
   </si>
   <si>
+    <t>2215.jpeg</t>
+  </si>
+  <si>
     <t>Short Juventus</t>
   </si>
   <si>
+    <t>2217.jpeg</t>
+  </si>
+  <si>
     <t>Short Boca</t>
   </si>
   <si>
+    <t>2218.jpeg</t>
+  </si>
+  <si>
     <t>Short 3 tiras Gris</t>
   </si>
   <si>
+    <t>2219.jpeg</t>
+  </si>
+  <si>
     <t>Short 3 tiras Negro</t>
   </si>
   <si>
+    <t>2220.jpeg</t>
+  </si>
+  <si>
     <t>Short 3 tiras Azul</t>
   </si>
   <si>
+    <t>2221.jpeg</t>
+  </si>
+  <si>
     <t>Pantalon de Arquero</t>
   </si>
   <si>
+    <t>2237.jpeg</t>
+  </si>
+  <si>
     <t>Musculosa Warriors</t>
   </si>
   <si>
+    <t>2242.jpeg</t>
+  </si>
+  <si>
     <t>Musculosa Argentina Blanca</t>
   </si>
   <si>
-    <t xml:space="preserve">Musculosa Lackers </t>
+    <t>2245.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculosa Lakers </t>
+  </si>
+  <si>
+    <t>2239.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Musculosa Spurs </t>
   </si>
   <si>
+    <t>2241.jpeg</t>
+  </si>
+  <si>
     <t>Musculosa Argentina Azul</t>
   </si>
   <si>
+    <t>2243.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Musculosa Miami </t>
   </si>
   <si>
+    <t>2240.jpeg</t>
+  </si>
+  <si>
     <t>Musculosa Argentina</t>
   </si>
   <si>
@@ -771,30 +1206,57 @@
     <t>Camiseta Termica Procer Azul</t>
   </si>
   <si>
+    <t>2233.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Termica Porcer Negra</t>
   </si>
   <si>
+    <t>2232.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Termica Talante Negra</t>
   </si>
   <si>
+    <t>2230.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Termica Rango Negra</t>
   </si>
   <si>
+    <t>2228.jpeg</t>
+  </si>
+  <si>
     <t>Calza Termica Talante Negra</t>
   </si>
   <si>
+    <t>2231.jpeg</t>
+  </si>
+  <si>
     <t>Calza Termica Conors Negra</t>
   </si>
   <si>
+    <t>2229.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Short Negro con detalles </t>
   </si>
   <si>
+    <t>0063.jpeg</t>
+  </si>
+  <si>
     <t>Short Negro UFC</t>
   </si>
   <si>
+    <t xml:space="preserve">2255.jpeg </t>
+  </si>
+  <si>
     <t xml:space="preserve">Chomba Union </t>
   </si>
   <si>
+    <t>0056.jpeg</t>
+  </si>
+  <si>
     <t>Camiseta Argentina Niño</t>
   </si>
   <si>
@@ -825,51 +1287,99 @@
     <t>Conjunto Barcelona Azul de Niño</t>
   </si>
   <si>
+    <t>1885.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conjunto Barcelona de Niño </t>
   </si>
   <si>
+    <t>1872.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Barcelona Negro de Niño</t>
   </si>
   <si>
+    <t>1884.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Boca Celeste de Niño</t>
   </si>
   <si>
+    <t>1901.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Boca Amarillo de Niño</t>
   </si>
   <si>
+    <t>1889.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Boca Azul de Niño</t>
   </si>
   <si>
+    <t>1883.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Talleres de Niño</t>
   </si>
   <si>
+    <t>1868.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Talleres bebe</t>
   </si>
   <si>
+    <t>1871.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Belgrano Celeste de Niño</t>
   </si>
   <si>
+    <t>1863.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto Belgrano Negro de Niño</t>
   </si>
   <si>
-    <t>Conjunto Belgrano Negro oscuro de Niño</t>
+    <t>1867.jpeg</t>
+  </si>
+  <si>
+    <t>Conjunto Belgrano Celeste oscuro de Niño</t>
+  </si>
+  <si>
+    <t>1866.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Conjunto River de Niño </t>
   </si>
   <si>
+    <t>1879.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto River con pantalon Gris de Niño</t>
   </si>
   <si>
+    <t>1875.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conjunto River con pantalon Negro de Niño </t>
   </si>
   <si>
+    <t>1877.jpeg</t>
+  </si>
+  <si>
     <t>Conjunto River Rojo con Negro de Niño</t>
   </si>
   <si>
+    <t>1878.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conjunto Real Madrid de Niño </t>
   </si>
   <si>
+    <t>1886.jpeg</t>
+  </si>
+  <si>
     <t>Canilleras Rojas de Adulto</t>
   </si>
   <si>
@@ -879,6 +1389,9 @@
     <t>Camiseta Boca Titular 2019</t>
   </si>
   <si>
+    <t>2250.jpeg</t>
+  </si>
+  <si>
     <t>Mochila Wilson Negra con detalles en Gris y Blanco</t>
   </si>
   <si>
@@ -892,6 +1405,9 @@
   </si>
   <si>
     <t>Camiseta Juventus Titular</t>
+  </si>
+  <si>
+    <t>0037.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="2">
@@ -1225,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="2">
@@ -1246,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="2">
@@ -1267,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2">
@@ -1288,9 +1804,6 @@
         <v>18</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" s="2">
         <v>300.0</v>
       </c>
@@ -1306,11 +1819,11 @@
         <v>3.0</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J7" s="2">
         <v>300.0</v>
@@ -1327,11 +1840,11 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J8" s="2">
         <v>300.0</v>
@@ -1348,11 +1861,11 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="J9" s="2">
         <v>300.0</v>
@@ -1369,12 +1882,9 @@
         <v>8.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" s="2">
         <v>300.0</v>
       </c>
@@ -1390,9 +1900,12 @@
         <v>9.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="2">
         <v>300.0</v>
       </c>
@@ -1408,9 +1921,12 @@
         <v>10.0</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="J12" s="2">
         <v>300.0</v>
       </c>
@@ -1429,6 +1945,9 @@
         <v>30</v>
       </c>
       <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J13" s="2">
         <v>300.0</v>
       </c>
@@ -1444,9 +1963,12 @@
         <v>10.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="2">
         <v>300.0</v>
       </c>
@@ -1462,9 +1984,12 @@
         <v>11.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="2">
         <v>300.0</v>
       </c>
@@ -1480,9 +2005,12 @@
         <v>12.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J16" s="2">
         <v>300.0</v>
       </c>
@@ -1498,9 +2026,12 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J17" s="2">
         <v>300.0</v>
       </c>
@@ -1516,9 +2047,12 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J18" s="2">
         <v>300.0</v>
       </c>
@@ -1534,9 +2068,12 @@
         <v>4.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J19" s="2">
         <v>300.0</v>
       </c>
@@ -1552,7 +2089,7 @@
         <v>13.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2"/>
       <c r="J20" s="2">
@@ -1570,9 +2107,12 @@
         <v>14.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="J21" s="2">
         <v>300.0</v>
       </c>
@@ -1585,9 +2125,12 @@
         <v>7.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J22" s="2">
         <v>300.0</v>
       </c>
@@ -1603,9 +2146,12 @@
         <v>5.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J23" s="2">
         <v>500.0</v>
       </c>
@@ -1621,9 +2167,12 @@
         <v>6.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="2">
         <v>500.0</v>
       </c>
@@ -1639,9 +2188,12 @@
         <v>7.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J25" s="2">
         <v>500.0</v>
       </c>
@@ -1657,9 +2209,12 @@
         <v>7.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="J26" s="2">
         <v>500.0</v>
       </c>
@@ -1675,9 +2230,12 @@
         <v>3.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J27" s="2">
         <v>500.0</v>
       </c>
@@ -1693,9 +2251,12 @@
         <v>3.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="J28" s="2">
         <v>500.0</v>
       </c>
@@ -1711,9 +2272,12 @@
         <v>1.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="J29" s="2">
         <v>500.0</v>
       </c>
@@ -1729,9 +2293,12 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J30" s="2">
         <v>500.0</v>
       </c>
@@ -1747,9 +2314,12 @@
         <v>8.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="J31" s="2">
         <v>500.0</v>
       </c>
@@ -1765,9 +2335,12 @@
         <v>9.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J32" s="2">
         <v>500.0</v>
       </c>
@@ -1783,9 +2356,12 @@
         <v>10.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="J33" s="2">
         <v>500.0</v>
       </c>
@@ -1801,9 +2377,12 @@
         <v>10.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J34" s="2">
         <v>500.0</v>
       </c>
@@ -1819,9 +2398,12 @@
         <v>11.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="J35" s="2">
         <v>500.0</v>
       </c>
@@ -1837,7 +2419,7 @@
         <v>12.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="J36" s="2">
@@ -1855,9 +2437,12 @@
         <v>12.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="J37" s="2">
         <v>500.0</v>
       </c>
@@ -1873,9 +2458,12 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J38" s="2">
         <v>500.0</v>
       </c>
@@ -1891,9 +2479,12 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
+      <c r="F39" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J39" s="2">
         <v>500.0</v>
       </c>
@@ -1909,7 +2500,7 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="J40" s="2">
@@ -1927,9 +2518,12 @@
         <v>4.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="J41" s="2">
         <v>500.0</v>
       </c>
@@ -1945,9 +2539,12 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="J42" s="2">
         <v>500.0</v>
       </c>
@@ -1963,9 +2560,12 @@
         <v>13.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2"/>
+      <c r="F43" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="J43" s="2">
         <v>500.0</v>
       </c>
@@ -1981,9 +2581,12 @@
         <v>15.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J44" s="2">
         <v>500.0</v>
       </c>
@@ -1999,9 +2602,12 @@
         <v>6.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J45" s="2">
         <v>700.0</v>
       </c>
@@ -2017,9 +2623,12 @@
         <v>3.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J46" s="2">
         <v>700.0</v>
       </c>
@@ -2035,7 +2644,7 @@
         <v>1.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="J47" s="2">
@@ -2053,7 +2662,7 @@
         <v>11.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2"/>
       <c r="J48" s="2">
@@ -2071,9 +2680,12 @@
         <v>12.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J49" s="2">
         <v>700.0</v>
       </c>
@@ -2089,7 +2701,7 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2"/>
       <c r="J50" s="2">
@@ -2107,7 +2719,7 @@
         <v>4.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2"/>
       <c r="J51" s="2">
@@ -2125,9 +2737,12 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="J52" s="2">
         <v>800.0</v>
       </c>
@@ -2143,9 +2758,12 @@
         <v>8.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2"/>
+      <c r="F53" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="J53" s="2">
         <v>800.0</v>
       </c>
@@ -2161,7 +2779,7 @@
         <v>10.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2"/>
       <c r="J54" s="2">
@@ -2179,7 +2797,7 @@
         <v>11.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2"/>
       <c r="J55" s="2">
@@ -2197,7 +2815,7 @@
         <v>12.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2"/>
       <c r="J56" s="2">
@@ -2215,9 +2833,12 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2"/>
+      <c r="F57" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="J57" s="2">
         <v>800.0</v>
       </c>
@@ -2233,7 +2854,7 @@
         <v>4.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2"/>
       <c r="J58" s="2">
@@ -2251,9 +2872,12 @@
         <v>6.0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="J59" s="2">
         <v>300.0</v>
       </c>
@@ -2269,9 +2893,12 @@
         <v>3.0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="J60" s="2">
         <v>300.0</v>
       </c>
@@ -2287,9 +2914,12 @@
         <v>1.0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2"/>
+      <c r="F61" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="J61" s="2">
         <v>300.0</v>
       </c>
@@ -2305,9 +2935,12 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2"/>
+      <c r="F62" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="J62" s="2">
         <v>300.0</v>
       </c>
@@ -2323,9 +2956,12 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="J63" s="2">
         <v>300.0</v>
       </c>
@@ -2341,9 +2977,12 @@
         <v>4.0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="J64" s="2">
         <v>300.0</v>
       </c>
@@ -2359,9 +2998,12 @@
         <v>3.0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="J65" s="2">
         <v>900.0</v>
       </c>
@@ -2377,9 +3019,12 @@
         <v>1.0</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="J66" s="2">
         <v>900.0</v>
       </c>
@@ -2395,9 +3040,12 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="J67" s="2">
         <v>900.0</v>
       </c>
@@ -2413,9 +3061,12 @@
         <v>4.0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="J68" s="2">
         <v>900.0</v>
       </c>
@@ -2431,9 +3082,12 @@
         <v>6.0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="J69" s="2">
         <v>800.0</v>
       </c>
@@ -2449,9 +3103,12 @@
         <v>7.0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2"/>
+      <c r="F70" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J70" s="2">
         <v>800.0</v>
       </c>
@@ -2467,9 +3124,12 @@
         <v>3.0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J71" s="2">
         <v>800.0</v>
       </c>
@@ -2485,9 +3145,12 @@
         <v>16.0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="J72" s="2">
         <v>800.0</v>
       </c>
@@ -2503,9 +3166,12 @@
         <v>10.0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="J73" s="2">
         <v>800.0</v>
       </c>
@@ -2521,9 +3187,12 @@
         <v>11.0</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="J74" s="2">
         <v>800.0</v>
       </c>
@@ -2539,9 +3208,12 @@
         <v>2.0</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="J75" s="2">
         <v>800.0</v>
       </c>
@@ -2554,9 +3226,12 @@
         <v>5.0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="J76" s="2">
         <v>650.0</v>
       </c>
@@ -2569,9 +3244,12 @@
         <v>5.0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="J77" s="2">
         <v>650.0</v>
       </c>
@@ -2587,9 +3265,12 @@
         <v>3.0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J78" s="2">
         <v>250.0</v>
       </c>
@@ -2602,9 +3283,12 @@
         <v>13.0</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2"/>
+      <c r="F79" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="J79" s="2">
         <v>250.0</v>
       </c>
@@ -2617,9 +3301,12 @@
         <v>13.0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2"/>
+      <c r="F80" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="J80" s="2">
         <v>250.0</v>
       </c>
@@ -2635,9 +3322,12 @@
         <v>4.0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2"/>
+      <c r="F81" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="J81" s="2">
         <v>250.0</v>
       </c>
@@ -2653,9 +3343,12 @@
         <v>7.0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2"/>
+      <c r="F82" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="J82" s="2">
         <v>250.0</v>
       </c>
@@ -2671,9 +3364,12 @@
         <v>3.0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2"/>
+      <c r="F83" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J83" s="2">
         <v>250.0</v>
       </c>
@@ -2689,9 +3385,12 @@
         <v>1.0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="J84" s="2">
         <v>250.0</v>
       </c>
@@ -2704,9 +3403,12 @@
         <v>15.0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="E85" s="2"/>
+      <c r="F85" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="J85" s="2">
         <v>250.0</v>
       </c>
@@ -2722,9 +3424,12 @@
         <v>11.0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2"/>
+      <c r="F86" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="J86" s="2">
         <v>250.0</v>
       </c>
@@ -2740,9 +3445,12 @@
         <v>2.0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="E87" s="2"/>
+      <c r="F87" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="J87" s="2">
         <v>250.0</v>
       </c>
@@ -2758,9 +3466,12 @@
         <v>4.0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2"/>
+      <c r="F88" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="J88" s="2">
         <v>250.0</v>
       </c>
@@ -2776,7 +3487,7 @@
         <v>6.0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E89" s="2"/>
       <c r="J89" s="2">
@@ -2794,9 +3505,12 @@
         <v>6.0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="E90" s="2"/>
+      <c r="F90" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="J90" s="2">
         <v>250.0</v>
       </c>
@@ -2812,9 +3526,12 @@
         <v>6.0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E91" s="2"/>
+      <c r="F91" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="J91" s="2">
         <v>250.0</v>
       </c>
@@ -2830,9 +3547,12 @@
         <v>3.0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2"/>
+      <c r="F92" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J92" s="2">
         <v>250.0</v>
       </c>
@@ -2848,9 +3568,12 @@
         <v>1.0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2"/>
+      <c r="F93" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="J93" s="2">
         <v>250.0</v>
       </c>
@@ -2866,9 +3589,12 @@
         <v>17.0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E94" s="2"/>
+      <c r="F94" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="J94" s="2">
         <v>250.0</v>
       </c>
@@ -2884,9 +3610,12 @@
         <v>16.0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="E95" s="2"/>
+      <c r="F95" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="J95" s="2">
         <v>250.0</v>
       </c>
@@ -2899,9 +3628,12 @@
         <v>14.0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2"/>
+      <c r="F96" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="J96" s="2">
         <v>250.0</v>
       </c>
@@ -2914,9 +3646,12 @@
         <v>14.0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="E97" s="2"/>
+      <c r="F97" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="J97" s="2">
         <v>250.0</v>
       </c>
@@ -2932,9 +3667,12 @@
         <v>2.0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="E98" s="2"/>
+      <c r="F98" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="J98" s="2">
         <v>250.0</v>
       </c>
@@ -2950,9 +3688,12 @@
         <v>2.0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E99" s="2"/>
+      <c r="F99" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="J99" s="2">
         <v>250.0</v>
       </c>
@@ -2968,9 +3709,12 @@
         <v>4.0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2"/>
+      <c r="F100" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="J100" s="2">
         <v>250.0</v>
       </c>
@@ -2986,9 +3730,12 @@
         <v>4.0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2"/>
+      <c r="F101" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="J101" s="2">
         <v>300.0</v>
       </c>
@@ -3004,9 +3751,12 @@
         <v>4.0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E102" s="2"/>
+      <c r="F102" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="J102" s="2">
         <v>300.0</v>
       </c>
@@ -3022,9 +3772,12 @@
         <v>4.0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="E103" s="2"/>
+      <c r="F103" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="J103" s="2">
         <v>300.0</v>
       </c>
@@ -3040,9 +3793,12 @@
         <v>2.0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="E104" s="2"/>
+      <c r="F104" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="J104" s="2">
         <v>300.0</v>
       </c>
@@ -3058,9 +3814,12 @@
         <v>2.0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E105" s="2"/>
+      <c r="F105" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="J105" s="2">
         <v>300.0</v>
       </c>
@@ -3076,9 +3835,12 @@
         <v>15.0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="E106" s="2"/>
+      <c r="F106" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="J106" s="2">
         <v>300.0</v>
       </c>
@@ -3094,9 +3856,12 @@
         <v>10.0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E107" s="2"/>
+      <c r="F107" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J107" s="2">
         <v>300.0</v>
       </c>
@@ -3112,9 +3877,12 @@
         <v>12.0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E108" s="2"/>
+      <c r="F108" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="J108" s="2">
         <v>300.0</v>
       </c>
@@ -3130,9 +3898,12 @@
         <v>7.0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="E109" s="2"/>
+      <c r="F109" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="J109" s="2">
         <v>300.0</v>
       </c>
@@ -3148,9 +3919,12 @@
         <v>1.0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="E110" s="2"/>
+      <c r="F110" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="J110" s="2">
         <v>300.0</v>
       </c>
@@ -3166,9 +3940,12 @@
         <v>1.0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E111" s="2"/>
+      <c r="F111" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="J111" s="2">
         <v>300.0</v>
       </c>
@@ -3184,9 +3961,12 @@
         <v>11.0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E112" s="2"/>
+      <c r="F112" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="J112" s="2">
         <v>300.0</v>
       </c>
@@ -3202,9 +3982,12 @@
         <v>11.0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="E113" s="2"/>
+      <c r="F113" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="J113" s="2">
         <v>300.0</v>
       </c>
@@ -3220,9 +4003,12 @@
         <v>6.0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="E114" s="2"/>
+      <c r="F114" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J114" s="2">
         <v>400.0</v>
       </c>
@@ -3238,9 +4024,12 @@
         <v>6.0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="E115" s="2"/>
+      <c r="F115" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="J115" s="2">
         <v>400.0</v>
       </c>
@@ -3256,9 +4045,12 @@
         <v>6.0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="E116" s="2"/>
+      <c r="F116" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="J116" s="2">
         <v>400.0</v>
       </c>
@@ -3274,9 +4066,12 @@
         <v>6.0</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="E117" s="2"/>
+      <c r="F117" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="J117" s="2">
         <v>400.0</v>
       </c>
@@ -3292,9 +4087,12 @@
         <v>3.0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="E118" s="2"/>
+      <c r="F118" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J118" s="2">
         <v>400.0</v>
       </c>
@@ -3310,9 +4108,12 @@
         <v>3.0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2"/>
+      <c r="F119" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="J119" s="2">
         <v>400.0</v>
       </c>
@@ -3328,9 +4129,12 @@
         <v>1.0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E120" s="2"/>
+      <c r="F120" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J120" s="2">
         <v>400.0</v>
       </c>
@@ -3343,9 +4147,12 @@
         <v>4.0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="E121" s="2"/>
+      <c r="F121" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="J121" s="2">
         <v>1200.0</v>
       </c>
@@ -3358,9 +4165,12 @@
         <v>4.0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E122" s="2"/>
+      <c r="F122" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="J122" s="2">
         <v>900.0</v>
       </c>
@@ -3373,7 +4183,7 @@
         <v>4.0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="E123" s="2"/>
       <c r="J123" s="2">
@@ -3388,9 +4198,12 @@
         <v>4.0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E124" s="2"/>
+      <c r="F124" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="J124" s="2">
         <v>900.0</v>
       </c>
@@ -3406,7 +4219,7 @@
         <v>3.0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="E125" s="2"/>
       <c r="J125" s="2">
@@ -3424,9 +4237,12 @@
         <v>4.0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="E126" s="2"/>
+      <c r="F126" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="J126" s="2">
         <v>900.0</v>
       </c>
@@ -3442,9 +4258,12 @@
         <v>3.0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="E127" s="2"/>
+      <c r="F127" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="J127" s="2">
         <v>700.0</v>
       </c>
@@ -3460,9 +4279,12 @@
         <v>4.0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="E128" s="2"/>
+      <c r="F128" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="J128" s="2">
         <v>700.0</v>
       </c>
@@ -3478,9 +4300,12 @@
         <v>3.0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="E129" s="2"/>
+      <c r="F129" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="J129" s="2">
         <v>900.0</v>
       </c>
@@ -3493,9 +4318,12 @@
         <v>4.0</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2"/>
+      <c r="F130" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="J130" s="2">
         <v>850.0</v>
       </c>
@@ -3508,7 +4336,7 @@
         <v>4.0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -3519,7 +4347,7 @@
         <v>4.0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
@@ -3530,7 +4358,7 @@
         <v>4.0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
@@ -3544,7 +4372,7 @@
         <v>3.0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="J134" s="2">
         <v>600.0</v>
@@ -3561,7 +4389,7 @@
         <v>3.0</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="J135" s="2">
         <v>600.0</v>
@@ -3578,7 +4406,7 @@
         <v>4.0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="J136" s="2">
         <v>600.0</v>
@@ -3595,7 +4423,10 @@
         <v>4.0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="J137" s="2">
         <v>600.0</v>
@@ -3612,7 +4443,7 @@
         <v>4.0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="J138" s="2">
         <v>600.0</v>
@@ -3629,7 +4460,7 @@
         <v>4.0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="J139" s="2">
         <v>600.0</v>
@@ -3646,7 +4477,7 @@
         <v>2.0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="J140" s="2">
         <v>600.0</v>
@@ -3663,7 +4494,7 @@
         <v>2.0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="J141" s="2">
         <v>600.0</v>
@@ -3680,7 +4511,7 @@
         <v>2.0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="J142" s="2">
         <v>600.0</v>
@@ -3697,7 +4528,10 @@
         <v>1.0</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="J143" s="2">
         <v>600.0</v>
@@ -3714,7 +4548,7 @@
         <v>1.0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="J144" s="2">
         <v>600.0</v>
@@ -3731,7 +4565,10 @@
         <v>1.0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>244</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="J145" s="2">
         <v>600.0</v>
@@ -3748,7 +4585,7 @@
         <v>18.0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="J146" s="2">
         <v>600.0</v>
@@ -3765,7 +4602,7 @@
         <v>1.0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="J147" s="2">
         <v>250.0</v>
@@ -3782,7 +4619,7 @@
         <v>2.0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="J148" s="2">
         <v>250.0</v>
@@ -3799,7 +4636,7 @@
         <v>3.0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="J149" s="2">
         <v>250.0</v>
@@ -3816,7 +4653,7 @@
         <v>4.0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="J150" s="2">
         <v>250.0</v>
@@ -3830,10 +4667,10 @@
         <v>17.0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
@@ -3844,10 +4681,10 @@
         <v>17.0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
@@ -3858,7 +4695,7 @@
         <v>17.0</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
@@ -3869,7 +4706,7 @@
         <v>17.0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
@@ -3880,10 +4717,10 @@
         <v>17.0</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
@@ -3894,10 +4731,10 @@
         <v>17.0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
@@ -3908,7 +4745,7 @@
         <v>17.0</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="J157" s="2">
         <v>420.0</v>
@@ -3922,7 +4759,7 @@
         <v>17.0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="J158" s="2">
         <v>420.0</v>
@@ -3936,7 +4773,7 @@
         <v>17.0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="J159" s="2">
         <v>420.0</v>
@@ -3953,7 +4790,7 @@
         <v>1.0</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="J160" s="2">
         <v>495.0</v>
@@ -3970,7 +4807,7 @@
         <v>1.0</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="J161" s="2">
         <v>495.0</v>
@@ -3987,7 +4824,7 @@
         <v>2.0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="J162" s="2">
         <v>495.0</v>
@@ -4004,7 +4841,7 @@
         <v>2.0</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="J163" s="2">
         <v>495.0</v>
@@ -4021,7 +4858,7 @@
         <v>7.0</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="J164" s="2">
         <v>495.0</v>
@@ -4038,7 +4875,7 @@
         <v>1.0</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="J165" s="2">
         <v>200.0</v>
@@ -4055,7 +4892,7 @@
         <v>2.0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="J166" s="2">
         <v>200.0</v>
@@ -4072,7 +4909,7 @@
         <v>4.0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="J167" s="2">
         <v>200.0</v>
@@ -4086,10 +4923,10 @@
         <v>17.0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="J168" s="2">
         <v>120.0</v>
@@ -4106,7 +4943,7 @@
         <v>1.0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="J169" s="2">
         <v>250.0</v>
@@ -4123,7 +4960,7 @@
         <v>3.0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="J170" s="2">
         <v>250.0</v>
@@ -4140,7 +4977,7 @@
         <v>4.0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="J171" s="2">
         <v>250.0</v>
@@ -4157,7 +4994,10 @@
         <v>1.0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="J172" s="2">
         <v>600.0</v>
@@ -4174,7 +5014,10 @@
         <v>1.0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>175</v>
+        <v>278</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="J173" s="2">
         <v>600.0</v>
@@ -4191,7 +5034,10 @@
         <v>1.0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="J174" s="2">
         <v>600.0</v>
@@ -4208,7 +5054,10 @@
         <v>4.0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="J175" s="2">
         <v>600.0</v>
@@ -4225,7 +5074,10 @@
         <v>3.0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="J176" s="2">
         <v>600.0</v>
@@ -4242,7 +5094,10 @@
         <v>2.0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="J177" s="2">
         <v>600.0</v>
@@ -4259,7 +5114,10 @@
         <v>2.0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>176</v>
+        <v>284</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="J178" s="2">
         <v>600.0</v>
@@ -4276,7 +5134,10 @@
         <v>2.0</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>177</v>
+        <v>286</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="J179" s="2">
         <v>600.0</v>
@@ -4293,7 +5154,10 @@
         <v>2.0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>178</v>
+        <v>288</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="J180" s="2">
         <v>600.0</v>
@@ -4310,7 +5174,10 @@
         <v>7.0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>179</v>
+        <v>290</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="J181" s="2">
         <v>1500.0</v>
@@ -4327,7 +5194,10 @@
         <v>3.0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="J182" s="2">
         <v>1500.0</v>
@@ -4344,7 +5214,10 @@
         <v>10.0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>180</v>
+        <v>293</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="J183" s="2">
         <v>1500.0</v>
@@ -4361,7 +5234,10 @@
         <v>11.0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>181</v>
+        <v>295</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="J184" s="2">
         <v>1500.0</v>
@@ -4378,7 +5254,10 @@
         <v>12.0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>182</v>
+        <v>297</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="J185" s="2">
         <v>1500.0</v>
@@ -4395,7 +5274,10 @@
         <v>2.0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>183</v>
+        <v>299</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="J186" s="2">
         <v>1500.0</v>
@@ -4412,7 +5294,10 @@
         <v>4.0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="J187" s="2">
         <v>1500.0</v>
@@ -4429,7 +5314,10 @@
         <v>13.0</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>184</v>
+        <v>302</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="J188" s="2">
         <v>1500.0</v>
@@ -4446,7 +5334,10 @@
         <v>6.0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>185</v>
+        <v>304</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="J189" s="2">
         <v>1500.0</v>
@@ -4463,7 +5354,7 @@
         <v>6.0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="J190" s="2">
         <v>1500.0</v>
@@ -4480,7 +5371,10 @@
         <v>6.0</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>187</v>
+        <v>307</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="J191" s="2">
         <v>1500.0</v>
@@ -4497,7 +5391,10 @@
         <v>6.0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>188</v>
+        <v>309</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="J192" s="2">
         <v>1500.0</v>
@@ -4514,7 +5411,10 @@
         <v>1.0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="J193" s="2">
         <v>1500.0</v>
@@ -4528,7 +5428,7 @@
         <v>17.0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
@@ -4542,7 +5442,7 @@
         <v>3.0</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="J195" s="2">
         <v>100.0</v>
@@ -4559,7 +5459,7 @@
         <v>6.0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="J196" s="2">
         <v>100.0</v>
@@ -4576,7 +5476,7 @@
         <v>4.0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="J197" s="2">
         <v>100.0</v>
@@ -4590,7 +5490,7 @@
         <v>17.0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
@@ -4601,7 +5501,7 @@
         <v>17.0</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
@@ -4615,7 +5515,7 @@
         <v>2.0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="J200" s="2">
         <v>300.0</v>
@@ -4632,7 +5532,7 @@
         <v>1.0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
@@ -4646,7 +5546,7 @@
         <v>3.0</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
@@ -4660,7 +5560,7 @@
         <v>4.0</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -4674,7 +5574,7 @@
         <v>16.0</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -4685,7 +5585,7 @@
         <v>17.0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>200</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -4696,7 +5596,7 @@
         <v>17.0</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
@@ -4707,7 +5607,10 @@
         <v>15.0</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>202</v>
+        <v>325</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="J207" s="2">
         <v>250.0</v>
@@ -4721,7 +5624,10 @@
         <v>13.0</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>202</v>
+        <v>325</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="J208" s="2">
         <v>250.0</v>
@@ -4735,7 +5641,10 @@
         <v>13.0</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>203</v>
+        <v>327</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="J209" s="2">
         <v>250.0</v>
@@ -4749,7 +5658,10 @@
         <v>14.0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>204</v>
+        <v>329</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="J210" s="2">
         <v>250.0</v>
@@ -4766,7 +5678,7 @@
         <v>12.0</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J211" s="2">
         <v>600.0</v>
@@ -4780,7 +5692,7 @@
         <v>20.0</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="J212" s="3">
         <v>400.0</v>
@@ -4794,7 +5706,7 @@
         <v>20.0</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="J213" s="3">
         <v>400.0</v>
@@ -4808,7 +5720,7 @@
         <v>20.0</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="J214" s="3">
         <v>400.0</v>
@@ -4822,7 +5734,7 @@
         <v>20.0</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="J215" s="3">
         <v>400.0</v>
@@ -4836,7 +5748,7 @@
         <v>20.0</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="J216" s="2">
         <v>400.0</v>
@@ -4850,7 +5762,7 @@
         <v>20.0</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="J217" s="2">
         <v>400.0</v>
@@ -4867,7 +5779,7 @@
         <v>1.0</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="J218" s="2">
         <v>500.0</v>
@@ -4884,7 +5796,7 @@
         <v>2.0</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="J219" s="2">
         <v>500.0</v>
@@ -4901,7 +5813,7 @@
         <v>7.0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="J220" s="2">
         <v>400.0</v>
@@ -4915,7 +5827,7 @@
         <v>20.0</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="J221" s="2">
         <v>400.0</v>
@@ -4932,7 +5844,7 @@
         <v>1.0</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="J222" s="2">
         <v>400.0</v>
@@ -4949,7 +5861,7 @@
         <v>3.0</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="J223" s="2">
         <v>400.0</v>
@@ -4966,7 +5878,7 @@
         <v>2.0</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="J224" s="2">
         <v>400.0</v>
@@ -4983,7 +5895,7 @@
         <v>2.0</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="J225" s="2">
         <v>400.0</v>
@@ -5000,7 +5912,7 @@
         <v>2.0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="J226" s="2">
         <v>500.0</v>
@@ -5014,7 +5926,7 @@
         <v>20.0</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="J227" s="2">
         <v>600.0</v>
@@ -5028,7 +5940,7 @@
         <v>20.0</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="J228" s="2">
         <v>600.0</v>
@@ -5042,7 +5954,7 @@
         <v>20.0</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="J229" s="2">
         <v>600.0</v>
@@ -5056,7 +5968,7 @@
         <v>20.0</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" ht="14.25" customHeight="1">
@@ -5067,7 +5979,7 @@
         <v>20.0</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" ht="14.25" customHeight="1">
@@ -5078,7 +5990,7 @@
         <v>20.0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="J232" s="2">
         <v>500.0</v>
@@ -5092,7 +6004,7 @@
         <v>20.0</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="J233" s="2">
         <v>500.0</v>
@@ -5106,7 +6018,7 @@
         <v>20.0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="J234" s="2">
         <v>500.0</v>
@@ -5120,7 +6032,7 @@
         <v>20.0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="J235" s="2">
         <v>500.0</v>
@@ -5133,8 +6045,11 @@
       <c r="B236" s="2">
         <v>6.0</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>229</v>
+      <c r="D236" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="237" ht="14.25" customHeight="1">
@@ -5145,7 +6060,10 @@
         <v>6.0</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>230</v>
+        <v>357</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="238" ht="14.25" customHeight="1">
@@ -5156,7 +6074,10 @@
         <v>6.0</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>231</v>
+        <v>359</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="239" ht="14.25" customHeight="1">
@@ -5167,7 +6088,10 @@
         <v>6.0</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>232</v>
+        <v>361</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="240" ht="14.25" customHeight="1">
@@ -5178,7 +6102,10 @@
         <v>6.0</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>233</v>
+        <v>363</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="241" ht="14.25" customHeight="1">
@@ -5189,7 +6116,10 @@
         <v>6.0</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>234</v>
+        <v>365</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="242" ht="14.25" customHeight="1">
@@ -5203,7 +6133,10 @@
         <v>13.0</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>235</v>
+        <v>367</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
@@ -5217,7 +6150,10 @@
         <v>10.0</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>236</v>
+        <v>369</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="244" ht="14.25" customHeight="1">
@@ -5231,7 +6167,10 @@
         <v>1.0</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>237</v>
+        <v>371</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="245" ht="14.25" customHeight="1">
@@ -5242,7 +6181,10 @@
         <v>6.0</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>238</v>
+        <v>373</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
@@ -5253,7 +6195,10 @@
         <v>6.0</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>239</v>
+        <v>375</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
@@ -5264,7 +6209,10 @@
         <v>6.0</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>240</v>
+        <v>377</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="248" ht="14.25" customHeight="1">
@@ -5275,7 +6223,10 @@
         <v>4.0</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>241</v>
+        <v>379</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
@@ -5289,7 +6240,10 @@
         <v>19.0</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>242</v>
+        <v>381</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
@@ -5303,7 +6257,10 @@
         <v>6.0</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>243</v>
+        <v>383</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
@@ -5316,8 +6273,11 @@
       <c r="C251" s="2">
         <v>20.0</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>244</v>
+      <c r="D251" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
@@ -5331,7 +6291,10 @@
         <v>21.0</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>245</v>
+        <v>387</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="253" ht="14.25" customHeight="1">
@@ -5345,7 +6308,10 @@
         <v>6.0</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>246</v>
+        <v>389</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
@@ -5359,7 +6325,10 @@
         <v>22.0</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>247</v>
+        <v>391</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
@@ -5373,7 +6342,10 @@
         <v>6.0</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>248</v>
+        <v>393</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
@@ -5387,7 +6359,10 @@
         <v>21.0</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>249</v>
+        <v>394</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
@@ -5398,7 +6373,13 @@
         <v>23.0</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>250</v>
+        <v>395</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J257" s="2">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
@@ -5409,7 +6390,13 @@
         <v>23.0</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>251</v>
+        <v>397</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J258" s="2">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
@@ -5420,7 +6407,13 @@
         <v>23.0</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>252</v>
+        <v>399</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J259" s="2">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
@@ -5431,7 +6424,13 @@
         <v>24.0</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>253</v>
+        <v>401</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J260" s="2">
+        <v>900.0</v>
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
@@ -5442,7 +6441,13 @@
         <v>24.0</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>252</v>
+        <v>399</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J261" s="2">
+        <v>900.0</v>
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
@@ -5453,7 +6458,13 @@
         <v>25.0</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>254</v>
+        <v>403</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J262" s="2">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="263" ht="14.25" customHeight="1">
@@ -5464,7 +6475,13 @@
         <v>26.0</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>255</v>
+        <v>405</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J263" s="2">
+        <v>800.0</v>
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
@@ -5475,7 +6492,13 @@
         <v>26.0</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>254</v>
+        <v>403</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J264" s="2">
+        <v>800.0</v>
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
@@ -5486,7 +6509,10 @@
         <v>7.0</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>256</v>
+        <v>407</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="J265" s="2">
         <v>300.0</v>
@@ -5500,7 +6526,10 @@
         <v>7.0</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>257</v>
+        <v>409</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="J266" s="2">
         <v>300.0</v>
@@ -5517,7 +6546,10 @@
         <v>23.0</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>258</v>
+        <v>411</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="J267" s="3">
         <v>600.0</v>
@@ -5534,7 +6566,7 @@
         <v>6.0</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="J268" s="2">
         <v>300.0</v>
@@ -5551,7 +6583,7 @@
         <v>6.0</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>260</v>
+        <v>414</v>
       </c>
       <c r="J269" s="2">
         <v>300.0</v>
@@ -5568,7 +6600,7 @@
         <v>10.0</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
@@ -5579,7 +6611,7 @@
         <v>17.0</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
     </row>
     <row r="272" ht="14.25" customHeight="1">
@@ -5590,7 +6622,7 @@
         <v>17.0</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>262</v>
+        <v>416</v>
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
@@ -5601,7 +6633,7 @@
         <v>17.0</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>263</v>
+        <v>417</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1">
@@ -5612,7 +6644,7 @@
         <v>17.0</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>264</v>
+        <v>418</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1">
@@ -5623,7 +6655,7 @@
         <v>17.0</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>265</v>
+        <v>419</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1">
@@ -5634,7 +6666,7 @@
         <v>17.0</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>266</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" ht="14.25" customHeight="1">
@@ -5645,7 +6677,7 @@
         <v>17.0</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
     </row>
     <row r="278" ht="14.25" customHeight="1">
@@ -5659,7 +6691,10 @@
         <v>7.0</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>268</v>
+        <v>422</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="279" ht="14.25" customHeight="1">
@@ -5673,7 +6708,10 @@
         <v>7.0</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>269</v>
+        <v>424</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="280" ht="14.25" customHeight="1">
@@ -5687,7 +6725,10 @@
         <v>7.0</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>270</v>
+        <v>426</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="281" ht="14.25" customHeight="1">
@@ -5701,7 +6742,10 @@
         <v>1.0</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>271</v>
+        <v>428</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="282" ht="14.25" customHeight="1">
@@ -5715,7 +6759,10 @@
         <v>1.0</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>272</v>
+        <v>430</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="283" ht="14.25" customHeight="1">
@@ -5729,7 +6776,10 @@
         <v>1.0</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>273</v>
+        <v>432</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="284" ht="14.25" customHeight="1">
@@ -5743,7 +6793,10 @@
         <v>4.0</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>274</v>
+        <v>434</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="285" ht="14.25" customHeight="1">
@@ -5757,7 +6810,10 @@
         <v>4.0</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>275</v>
+        <v>436</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="286" ht="14.25" customHeight="1">
@@ -5771,7 +6827,10 @@
         <v>3.0</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>276</v>
+        <v>438</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="287" ht="14.25" customHeight="1">
@@ -5785,7 +6844,10 @@
         <v>3.0</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>277</v>
+        <v>440</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="288" ht="14.25" customHeight="1">
@@ -5798,8 +6860,11 @@
       <c r="C288" s="2">
         <v>3.0</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>278</v>
+      <c r="D288" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="289" ht="14.25" customHeight="1">
@@ -5813,7 +6878,10 @@
         <v>2.0</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>279</v>
+        <v>444</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="290" ht="14.25" customHeight="1">
@@ -5827,7 +6895,10 @@
         <v>2.0</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>280</v>
+        <v>446</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="291" ht="14.25" customHeight="1">
@@ -5841,7 +6912,10 @@
         <v>2.0</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>281</v>
+        <v>448</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="292" ht="14.25" customHeight="1">
@@ -5855,7 +6929,10 @@
         <v>2.0</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>282</v>
+        <v>450</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="293" ht="14.25" customHeight="1">
@@ -5869,7 +6946,10 @@
         <v>12.0</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>283</v>
+        <v>452</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="294" ht="14.25" customHeight="1">
@@ -5880,7 +6960,7 @@
         <v>17.0</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>284</v>
+        <v>454</v>
       </c>
     </row>
     <row r="295" ht="14.25" customHeight="1">
@@ -5891,7 +6971,7 @@
         <v>17.0</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>285</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" ht="14.25" customHeight="1">
@@ -5902,7 +6982,10 @@
         <v>3.0</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>286</v>
+        <v>456</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="297" ht="14.25" customHeight="1">
@@ -5913,7 +6996,7 @@
         <v>19.0</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
     </row>
     <row r="298" ht="14.25" customHeight="1">
@@ -5924,7 +7007,7 @@
         <v>19.0</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
     </row>
     <row r="299" ht="14.25" customHeight="1">
@@ -5935,7 +7018,7 @@
         <v>19.0</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" ht="14.25" customHeight="1">
@@ -5946,7 +7029,7 @@
         <v>19.0</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" ht="14.25" customHeight="1">
@@ -5960,7 +7043,10 @@
         <v>10.0</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>291</v>
+        <v>462</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="302" ht="14.25" customHeight="1">
